--- a/actividad.xlsx
+++ b/actividad.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="29">
   <si>
     <t>¿Acepta participar en el estudio?</t>
   </si>
@@ -37,7 +37,7 @@
     <t>En la actualidad, ¿tocas algún instrumento musical con frecuencia?</t>
   </si>
   <si>
-    <t>TIEMPO</t>
+    <t>TEMPO</t>
   </si>
   <si>
     <t>PUNTAJE</t>
@@ -52,7 +52,13 @@
     <t>No</t>
   </si>
   <si>
+    <t>Tempo lento</t>
+  </si>
+  <si>
     <t>aananias@pucp.edu.pe</t>
+  </si>
+  <si>
+    <t>Tempo rapido</t>
   </si>
   <si>
     <t>rodrigo.diazl@pucp.edu.pe</t>
@@ -92,6 +98,9 @@
   </si>
   <si>
     <t xml:space="preserve">a20193562@pucp.edu.pe </t>
+  </si>
+  <si>
+    <t>TIEMPO</t>
   </si>
 </sst>
 </file>
@@ -423,13 +432,12 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="18.88"/>
-    <col customWidth="1" hidden="1" min="2" max="3" width="18.88"/>
+    <col customWidth="1" min="1" max="3" width="18.88"/>
     <col customWidth="1" min="4" max="4" width="14.63"/>
     <col customWidth="1" min="5" max="5" width="13.25"/>
     <col customWidth="1" min="6" max="6" width="37.25"/>
-    <col customWidth="1" hidden="1" min="7" max="7" width="42.75"/>
-    <col customWidth="1" hidden="1" min="8" max="8" width="34.5"/>
+    <col customWidth="1" min="7" max="7" width="42.75"/>
+    <col customWidth="1" min="8" max="8" width="34.5"/>
     <col customWidth="1" min="9" max="9" width="10.88"/>
     <col customWidth="1" min="10" max="10" width="16.13"/>
   </cols>
@@ -489,8 +497,8 @@
       <c r="H2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="7">
-        <v>1.0</v>
+      <c r="I2" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="J2" s="6">
         <v>82.0</v>
@@ -504,7 +512,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" s="8">
         <v>2.0</v>
@@ -521,8 +529,8 @@
       <c r="H3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="9">
-        <v>2.0</v>
+      <c r="I3" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="J3" s="8">
         <v>98.0</v>
@@ -536,7 +544,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D4" s="8">
         <v>1.0</v>
@@ -553,8 +561,8 @@
       <c r="H4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="7">
-        <v>1.0</v>
+      <c r="I4" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="J4" s="8">
         <v>73.0</v>
@@ -568,7 +576,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D5" s="8">
         <v>2.0</v>
@@ -585,8 +593,8 @@
       <c r="H5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="9">
-        <v>2.0</v>
+      <c r="I5" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="J5" s="8">
         <v>112.0</v>
@@ -617,8 +625,8 @@
       <c r="H6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="7">
-        <v>1.0</v>
+      <c r="I6" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="J6" s="10">
         <v>72.0</v>
@@ -632,7 +640,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D7" s="8">
         <v>1.0</v>
@@ -649,8 +657,8 @@
       <c r="H7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="9">
-        <v>2.0</v>
+      <c r="I7" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="J7" s="8">
         <v>96.0</v>
@@ -664,7 +672,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D8" s="8">
         <v>1.0</v>
@@ -681,8 +689,8 @@
       <c r="H8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="9">
-        <v>2.0</v>
+      <c r="I8" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="J8" s="8">
         <v>108.0</v>
@@ -711,8 +719,8 @@
       <c r="H9" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="9">
-        <v>2.0</v>
+      <c r="I9" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="J9" s="11">
         <v>114.0</v>
@@ -741,8 +749,8 @@
       <c r="H10" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="9">
-        <v>2.0</v>
+      <c r="I10" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="J10" s="11">
         <v>97.0</v>
@@ -771,8 +779,8 @@
       <c r="H11" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="9">
-        <v>2.0</v>
+      <c r="I11" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="J11" s="11">
         <v>56.0</v>
@@ -801,8 +809,8 @@
       <c r="H12" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I12" s="9">
-        <v>2.0</v>
+      <c r="I12" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="J12" s="8">
         <v>101.0</v>
@@ -816,7 +824,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D13" s="6">
         <v>1.0</v>
@@ -833,8 +841,8 @@
       <c r="H13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I13" s="7">
-        <v>1.0</v>
+      <c r="I13" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="J13" s="6">
         <v>91.0</v>
@@ -863,8 +871,8 @@
       <c r="H14" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I14" s="9">
-        <v>2.0</v>
+      <c r="I14" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="J14" s="8">
         <v>99.0</v>
@@ -893,8 +901,8 @@
       <c r="H15" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I15" s="9">
-        <v>2.0</v>
+      <c r="I15" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="J15" s="8">
         <v>107.0</v>
@@ -923,8 +931,8 @@
       <c r="H16" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I16" s="9">
-        <v>2.0</v>
+      <c r="I16" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="J16" s="8">
         <v>85.0</v>
@@ -938,7 +946,7 @@
         <v>9</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D17" s="8">
         <v>1.0</v>
@@ -955,8 +963,8 @@
       <c r="H17" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I17" s="9">
-        <v>2.0</v>
+      <c r="I17" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="J17" s="8">
         <v>91.0</v>
@@ -970,7 +978,7 @@
         <v>9</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D18" s="8">
         <v>1.0</v>
@@ -987,8 +995,8 @@
       <c r="H18" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I18" s="9">
-        <v>2.0</v>
+      <c r="I18" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="J18" s="8">
         <v>108.0</v>
@@ -1002,7 +1010,7 @@
         <v>9</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D19" s="8">
         <v>2.0</v>
@@ -1019,8 +1027,8 @@
       <c r="H19" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I19" s="9">
-        <v>2.0</v>
+      <c r="I19" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="J19" s="8">
         <v>114.0</v>
@@ -1049,8 +1057,8 @@
       <c r="H20" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I20" s="9">
-        <v>2.0</v>
+      <c r="I20" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="J20" s="8">
         <v>85.0</v>
@@ -1079,8 +1087,8 @@
       <c r="H21" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I21" s="9">
-        <v>2.0</v>
+      <c r="I21" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="J21" s="8">
         <v>102.0</v>
@@ -1109,8 +1117,8 @@
       <c r="H22" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I22" s="7">
-        <v>1.0</v>
+      <c r="I22" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="J22" s="6">
         <v>75.0</v>
@@ -1139,8 +1147,8 @@
       <c r="H23" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I23" s="7">
-        <v>1.0</v>
+      <c r="I23" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="J23" s="6">
         <v>81.0</v>
@@ -1154,7 +1162,7 @@
         <v>9</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D24" s="6">
         <v>2.0</v>
@@ -1171,8 +1179,8 @@
       <c r="H24" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I24" s="7">
-        <v>1.0</v>
+      <c r="I24" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="J24" s="6">
         <v>62.0</v>
@@ -1201,8 +1209,8 @@
       <c r="H25" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I25" s="7">
-        <v>1.0</v>
+      <c r="I25" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="J25" s="6">
         <v>88.0</v>
@@ -1231,8 +1239,8 @@
       <c r="H26" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I26" s="7">
-        <v>1.0</v>
+      <c r="I26" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="J26" s="6">
         <v>69.0</v>
@@ -1261,8 +1269,8 @@
       <c r="H27" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I27" s="7">
-        <v>1.0</v>
+      <c r="I27" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="J27" s="6">
         <v>63.0</v>
@@ -1291,8 +1299,8 @@
       <c r="H28" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I28" s="7">
-        <v>1.0</v>
+      <c r="I28" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="J28" s="6">
         <v>100.0</v>
@@ -1321,8 +1329,8 @@
       <c r="H29" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I29" s="7">
-        <v>1.0</v>
+      <c r="I29" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="J29" s="6">
         <v>69.0</v>
@@ -1351,8 +1359,8 @@
       <c r="H30" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I30" s="7">
-        <v>1.0</v>
+      <c r="I30" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="J30" s="6">
         <v>82.0</v>
@@ -1381,8 +1389,8 @@
       <c r="H31" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I31" s="9">
-        <v>2.0</v>
+      <c r="I31" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="J31" s="8">
         <v>99.0</v>
@@ -1411,8 +1419,8 @@
       <c r="H32" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I32" s="7">
-        <v>1.0</v>
+      <c r="I32" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="J32" s="8">
         <v>87.0</v>
@@ -1441,8 +1449,8 @@
       <c r="H33" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I33" s="7">
-        <v>1.0</v>
+      <c r="I33" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="J33" s="8">
         <v>79.0</v>
@@ -1471,8 +1479,8 @@
       <c r="H34" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I34" s="9">
-        <v>2.0</v>
+      <c r="I34" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="J34" s="8">
         <v>99.0</v>
@@ -1501,8 +1509,8 @@
       <c r="H35" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I35" s="7">
-        <v>1.0</v>
+      <c r="I35" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="J35" s="8">
         <v>79.0</v>
@@ -1516,7 +1524,7 @@
         <v>9</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D36" s="8">
         <v>1.0</v>
@@ -1533,8 +1541,8 @@
       <c r="H36" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I36" s="9">
-        <v>2.0</v>
+      <c r="I36" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="J36" s="8">
         <v>125.0</v>
@@ -1563,8 +1571,8 @@
       <c r="H37" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I37" s="7">
-        <v>1.0</v>
+      <c r="I37" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="J37" s="8">
         <v>75.0</v>
@@ -1593,8 +1601,8 @@
       <c r="H38" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I38" s="7">
-        <v>1.0</v>
+      <c r="I38" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="J38" s="6">
         <v>93.0</v>
@@ -1623,8 +1631,8 @@
       <c r="H39" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I39" s="7">
-        <v>1.0</v>
+      <c r="I39" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="J39" s="6">
         <v>95.0</v>
@@ -1638,7 +1646,7 @@
         <v>9</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D40" s="6">
         <v>2.0</v>
@@ -1655,8 +1663,8 @@
       <c r="H40" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I40" s="7">
-        <v>1.0</v>
+      <c r="I40" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="J40" s="6">
         <v>71.0</v>
@@ -1670,7 +1678,7 @@
         <v>9</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D41" s="10">
         <v>2.0</v>
@@ -1687,8 +1695,8 @@
       <c r="H41" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I41" s="7">
-        <v>1.0</v>
+      <c r="I41" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="J41" s="10">
         <v>65.0</v>
@@ -1717,8 +1725,8 @@
       <c r="H42" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I42" s="7">
-        <v>1.0</v>
+      <c r="I42" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="J42" s="8">
         <v>81.0</v>
@@ -1747,8 +1755,8 @@
       <c r="H43" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I43" s="7">
-        <v>1.0</v>
+      <c r="I43" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="J43" s="8">
         <v>76.0</v>
@@ -1777,8 +1785,8 @@
       <c r="H44" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I44" s="9">
-        <v>2.0</v>
+      <c r="I44" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="J44" s="8">
         <v>106.0</v>
@@ -1807,8 +1815,8 @@
       <c r="H45" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I45" s="7">
-        <v>1.0</v>
+      <c r="I45" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="J45" s="8">
         <v>76.0</v>
@@ -1837,8 +1845,8 @@
       <c r="H46" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I46" s="7">
-        <v>1.0</v>
+      <c r="I46" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="J46" s="8">
         <v>95.0</v>
@@ -1867,8 +1875,8 @@
       <c r="H47" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I47" s="7">
-        <v>1.0</v>
+      <c r="I47" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="J47" s="8">
         <v>77.0</v>
@@ -1897,8 +1905,8 @@
       <c r="H48" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I48" s="7">
-        <v>1.0</v>
+      <c r="I48" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="J48" s="8">
         <v>81.0</v>
@@ -1927,8 +1935,8 @@
       <c r="H49" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I49" s="9">
-        <v>2.0</v>
+      <c r="I49" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="J49" s="8">
         <v>87.0</v>
@@ -1957,8 +1965,8 @@
       <c r="H50" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I50" s="7">
-        <v>1.0</v>
+      <c r="I50" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="J50" s="6">
         <v>43.0</v>
@@ -1972,7 +1980,7 @@
         <v>9</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D51" s="6">
         <v>2.0</v>
@@ -1989,8 +1997,8 @@
       <c r="H51" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I51" s="7">
-        <v>1.0</v>
+      <c r="I51" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="J51" s="6">
         <v>94.0</v>
@@ -2019,8 +2027,8 @@
       <c r="H52" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="7">
-        <v>1.0</v>
+      <c r="I52" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="J52" s="8">
         <v>77.0</v>
@@ -2049,8 +2057,8 @@
       <c r="H53" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="I53" s="9">
-        <v>2.0</v>
+      <c r="I53" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="J53" s="11">
         <v>85.0</v>
@@ -2079,8 +2087,8 @@
       <c r="H54" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="I54" s="9">
-        <v>2.0</v>
+      <c r="I54" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="J54" s="11">
         <v>84.0</v>
@@ -2109,8 +2117,8 @@
       <c r="H55" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="I55" s="9">
-        <v>2.0</v>
+      <c r="I55" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="J55" s="11">
         <v>80.0</v>
@@ -2139,8 +2147,8 @@
       <c r="H56" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="I56" s="9">
-        <v>2.0</v>
+      <c r="I56" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="J56" s="11">
         <v>115.0</v>
@@ -2169,8 +2177,8 @@
       <c r="H57" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="I57" s="9">
-        <v>2.0</v>
+      <c r="I57" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="J57" s="11">
         <v>79.0</v>
@@ -2199,8 +2207,8 @@
       <c r="H58" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="I58" s="9">
-        <v>2.0</v>
+      <c r="I58" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="J58" s="11">
         <v>94.0</v>
@@ -2229,8 +2237,8 @@
       <c r="H59" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="I59" s="9">
-        <v>2.0</v>
+      <c r="I59" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="J59" s="11">
         <v>75.0</v>
@@ -2259,8 +2267,8 @@
       <c r="H60" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="I60" s="9">
-        <v>2.0</v>
+      <c r="I60" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="J60" s="11">
         <v>70.0</v>
@@ -2289,8 +2297,8 @@
       <c r="H61" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="I61" s="9">
-        <v>2.0</v>
+      <c r="I61" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="J61" s="11">
         <v>83.0</v>
@@ -2317,13 +2325,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="5" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>8</v>
